--- a/Package_TataSky_WishList.xlsx
+++ b/Package_TataSky_WishList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MyPack" sheetId="1" r:id="rId1"/>
@@ -1892,7 +1892,7 @@
     <t> insync</t>
   </si>
   <si>
-    <t>venkaeshnarayana15@gmail.com</t>
+    <t>testemail123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D590"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
@@ -11171,7 +11171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Package_TataSky_WishList.xlsx
+++ b/Package_TataSky_WishList.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MyMandatoryChannels!$A$1:$G$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MyPack!$A$1:$D$589</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MyPack!$A$1:$D$564</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2961" uniqueCount="658">
   <si>
     <t>Pack_Name</t>
   </si>
@@ -2025,45 +2025,24 @@
     <t>English</t>
   </si>
   <si>
-    <t xml:space="preserve">Telugu/English </t>
-  </si>
-  <si>
     <t>Marathi </t>
   </si>
   <si>
     <t>Music</t>
   </si>
   <si>
-    <t>Punjabi/English</t>
-  </si>
-  <si>
     <t>Devotional</t>
   </si>
   <si>
-    <t>Tamil/English</t>
-  </si>
-  <si>
     <t>Infotainment</t>
   </si>
   <si>
     <t>HD</t>
   </si>
   <si>
-    <t>Gujarati/Hindi</t>
-  </si>
-  <si>
-    <t>English/Malayalam</t>
-  </si>
-  <si>
     <t>Kids</t>
   </si>
   <si>
-    <t>English/Telugu</t>
-  </si>
-  <si>
-    <t>Punjabi/Hindi</t>
-  </si>
-  <si>
     <t>German</t>
   </si>
   <si>
@@ -2076,31 +2055,25 @@
     <t>French</t>
   </si>
   <si>
-    <t>Telugu/Hindi</t>
-  </si>
-  <si>
     <t>Haryanvi</t>
   </si>
   <si>
-    <t>Hindi/Bhojpuri</t>
-  </si>
-  <si>
     <t>Parasi</t>
   </si>
   <si>
-    <t>Japanese/English</t>
-  </si>
-  <si>
-    <t>Bhojpuri/Hindi</t>
-  </si>
-  <si>
     <t>Star Sports 1 Bangla</t>
   </si>
   <si>
-    <t>Kannada/English</t>
-  </si>
-  <si>
     <t>Zee ETC Bollywood</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Nepali</t>
+  </si>
+  <si>
+    <t>Japanese</t>
   </si>
 </sst>
 </file>
@@ -2200,7 +2173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2215,12 +2188,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2541,22 +2508,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G589"/>
+  <dimension ref="A1:G564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A546" sqref="A546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2644,7 +2610,7 @@
         <v>7.08</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>639</v>
@@ -2675,7 +2641,7 @@
         <v>639</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2719,7 +2685,7 @@
         <v>14.16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>621</v>
@@ -2775,7 +2741,7 @@
         <v>630</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2783,7 +2749,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="str">
+      <c r="A10" s="8" t="str">
         <f>"99%"</f>
         <v>99%</v>
       </c>
@@ -2823,10 +2789,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G11" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2848,10 +2814,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G12" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2873,7 +2839,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>633</v>
@@ -2898,10 +2864,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2926,7 +2892,7 @@
         <v>630</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2945,7 +2911,7 @@
         <v>0.89</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>630</v>
@@ -2995,7 +2961,7 @@
         <v>0.3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>630</v>
@@ -3048,7 +3014,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>623</v>
@@ -3073,10 +3039,10 @@
         <v>6</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3176,7 +3142,7 @@
         <v>630</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="G25" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3201,7 +3167,7 @@
         <v>630</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G26" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3223,7 +3189,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>632</v>
@@ -3298,10 +3264,10 @@
         <v>6</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="G30" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3320,13 +3286,13 @@
         <v>2.36</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G31" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3348,13 +3314,13 @@
         <v>6</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>648</v>
+        <v>640</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3375,7 +3341,7 @@
         <v>621</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G33" s="5" t="str">
         <f t="shared" ref="G33:G61" si="2">IF(RIGHT(A33,2)="HD","HD","SD")</f>
@@ -3400,7 +3366,7 @@
         <v>630</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G34" s="5" t="str">
         <f t="shared" si="2"/>
@@ -3425,7 +3391,7 @@
         <v>621</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="G35" s="5" t="str">
         <f t="shared" si="2"/>
@@ -3447,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="G36" s="5" t="str">
         <f t="shared" si="2"/>
@@ -3600,7 +3566,7 @@
         <v>630</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="G42" s="5" t="str">
         <f t="shared" si="2"/>
@@ -3747,7 +3713,7 @@
         <v>6</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>623</v>
@@ -3772,10 +3738,10 @@
         <v>6</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G49" s="5" t="str">
         <f t="shared" si="2"/>
@@ -3800,7 +3766,7 @@
         <v>630</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G50" s="5" t="str">
         <f t="shared" si="2"/>
@@ -3850,7 +3816,7 @@
         <v>639</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G52" s="5" t="str">
         <f t="shared" si="2"/>
@@ -3872,7 +3838,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>635</v>
@@ -3900,7 +3866,7 @@
         <v>630</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G54" s="5" t="str">
         <f t="shared" si="2"/>
@@ -3944,7 +3910,7 @@
         <v>0.59</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>621</v>
@@ -3969,7 +3935,7 @@
         <v>0.12</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>621</v>
@@ -4050,7 +4016,7 @@
         <v>630</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="G60" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4069,13 +4035,13 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="G61" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4097,13 +4063,13 @@
         <v>6</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>648</v>
+        <v>640</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4174,7 +4140,7 @@
         <v>621</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G65" s="5" t="str">
         <f t="shared" si="3"/>
@@ -4221,7 +4187,7 @@
         <v>6</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>625</v>
@@ -4246,7 +4212,7 @@
         <v>6</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>632</v>
@@ -4318,7 +4284,7 @@
         <v>1.18</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>630</v>
@@ -4468,7 +4434,7 @@
         <v>22.42</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>621</v>
@@ -4532,26 +4498,26 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="13">
         <f t="shared" si="4"/>
         <v>3.54</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="E80" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="F80" s="15" t="s">
+      <c r="F80" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="G80" s="15" t="str">
+      <c r="G80" s="13" t="str">
         <f t="shared" si="3"/>
         <v>SD</v>
       </c>
@@ -4581,7 +4547,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>115</v>
       </c>
@@ -4606,7 +4572,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>116</v>
       </c>
@@ -4774,7 +4740,7 @@
         <v>621</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G89" s="5" t="str">
         <f t="shared" si="3"/>
@@ -4799,7 +4765,7 @@
         <v>621</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G90" s="5" t="str">
         <f t="shared" si="3"/>
@@ -4831,27 +4797,27 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="13">
         <f t="shared" si="4"/>
         <v>1.18</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="F92" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="F92" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="G92" s="15" t="str">
+      <c r="G92" s="13" t="str">
         <f t="shared" si="3"/>
         <v>SD</v>
       </c>
@@ -4956,7 +4922,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>129</v>
       </c>
@@ -5021,10 +4987,10 @@
         <v>6</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="G99" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5096,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G102" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5124,7 +5090,7 @@
         <v>621</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G103" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5146,10 +5112,10 @@
         <v>6</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G104" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5174,7 +5140,7 @@
         <v>621</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G105" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5199,7 +5165,7 @@
         <v>630</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G106" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5224,7 +5190,7 @@
         <v>630</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G107" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5243,13 +5209,13 @@
         <v>4.72</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G108" s="5" t="str">
         <f t="shared" si="3"/>
@@ -5271,13 +5237,13 @@
         <v>6</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="G109" s="13" t="s">
-        <v>648</v>
+      <c r="G109" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5292,10 +5258,10 @@
         <v>3.54</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>640</v>
@@ -5305,7 +5271,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>166</v>
       </c>
@@ -5317,13 +5283,13 @@
         <v>1.18</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G111" s="5" t="str">
         <f t="shared" si="5"/>
@@ -5345,7 +5311,7 @@
         <v>6</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>632</v>
@@ -5355,7 +5321,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>168</v>
       </c>
@@ -5367,20 +5333,20 @@
         <v>1.18</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G113" s="5" t="str">
         <f t="shared" si="5"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>169</v>
       </c>
@@ -5398,14 +5364,14 @@
         <v>630</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="G114" s="5" t="str">
         <f t="shared" si="5"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>170</v>
       </c>
@@ -5423,14 +5389,14 @@
         <v>621</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G115" s="5" t="str">
         <f t="shared" si="5"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>171</v>
       </c>
@@ -5442,10 +5408,10 @@
         <v>9.44</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>640</v>
@@ -5470,7 +5436,7 @@
         <v>6</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>640</v>
@@ -5492,10 +5458,10 @@
         <v>4.72</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>640</v>
@@ -5505,7 +5471,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>157</v>
       </c>
@@ -5517,7 +5483,7 @@
         <v>4.72</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>636</v>
@@ -5548,14 +5514,14 @@
         <v>630</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G120" s="5" t="str">
         <f t="shared" si="5"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>159</v>
       </c>
@@ -5573,7 +5539,7 @@
         <v>630</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="G121" s="5" t="str">
         <f t="shared" si="5"/>
@@ -5605,7 +5571,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>184</v>
       </c>
@@ -5620,10 +5586,10 @@
         <v>6</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G123" s="5" t="str">
         <f t="shared" si="5"/>
@@ -5642,13 +5608,13 @@
         <v>2.36</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G124" s="5" t="str">
         <f t="shared" si="5"/>
@@ -5673,7 +5639,7 @@
         <v>630</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G125" s="5" t="str">
         <f t="shared" si="5"/>
@@ -5780,7 +5746,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>180</v>
       </c>
@@ -5855,7 +5821,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>183</v>
       </c>
@@ -5895,7 +5861,7 @@
         <v>6</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>640</v>
@@ -5905,7 +5871,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>188</v>
       </c>
@@ -5920,17 +5886,17 @@
         <v>6</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G135" s="5" t="str">
         <f t="shared" si="5"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>189</v>
       </c>
@@ -5945,10 +5911,10 @@
         <v>6</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="G136" s="5" t="str">
         <f t="shared" si="5"/>
@@ -5980,7 +5946,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>191</v>
       </c>
@@ -5995,7 +5961,7 @@
         <v>6</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>628</v>
@@ -6005,7 +5971,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>192</v>
       </c>
@@ -6017,10 +5983,10 @@
         <v>0.35</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>640</v>
@@ -6042,10 +6008,10 @@
         <v>1.18</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>640</v>
@@ -6070,10 +6036,10 @@
         <v>6</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G141" s="5" t="str">
         <f t="shared" si="5"/>
@@ -6098,7 +6064,7 @@
         <v>630</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="G142" s="5" t="str">
         <f t="shared" si="5"/>
@@ -6117,10 +6083,10 @@
         <v>0.3</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>640</v>
@@ -6130,7 +6096,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>195</v>
       </c>
@@ -6145,7 +6111,7 @@
         <v>6</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>635</v>
@@ -6170,7 +6136,7 @@
         <v>6</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>635</v>
@@ -6180,7 +6146,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>197</v>
       </c>
@@ -6230,7 +6196,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>199</v>
       </c>
@@ -6245,7 +6211,7 @@
         <v>6</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>635</v>
@@ -6320,7 +6286,7 @@
         <v>6</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>640</v>
@@ -6345,7 +6311,7 @@
         <v>6</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>640</v>
@@ -6370,10 +6336,10 @@
         <v>6</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G153" s="5" t="str">
         <f t="shared" si="5"/>
@@ -6423,14 +6389,14 @@
         <v>630</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="G155" s="5" t="str">
         <f t="shared" si="5"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>207</v>
       </c>
@@ -6480,7 +6446,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>211</v>
       </c>
@@ -6520,17 +6486,17 @@
         <v>6</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="G159" s="5" t="str">
         <f t="shared" si="5"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>213</v>
       </c>
@@ -6542,10 +6508,10 @@
         <v>3.54</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>640</v>
@@ -6570,7 +6536,7 @@
         <v>6</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>640</v>
@@ -6580,7 +6546,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>209</v>
       </c>
@@ -6598,7 +6564,7 @@
         <v>630</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="G162" s="5" t="str">
         <f t="shared" si="5"/>
@@ -6623,7 +6589,7 @@
         <v>630</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G163" s="5" t="str">
         <f t="shared" si="5"/>
@@ -6645,10 +6611,10 @@
         <v>6</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G164" s="5" t="str">
         <f t="shared" si="5"/>
@@ -6667,20 +6633,20 @@
         <v>7.08</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G165" s="5" t="str">
         <f t="shared" si="5"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>217</v>
       </c>
@@ -6698,7 +6664,7 @@
         <v>630</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="G166" s="5" t="str">
         <f t="shared" si="5"/>
@@ -6748,7 +6714,7 @@
         <v>630</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G168" s="5" t="str">
         <f t="shared" si="5"/>
@@ -6773,7 +6739,7 @@
         <v>630</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G169" s="5" t="str">
         <f t="shared" si="5"/>
@@ -6823,7 +6789,7 @@
         <v>630</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="G171" s="5" t="str">
         <f t="shared" si="5"/>
@@ -6923,7 +6889,7 @@
         <v>630</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>660</v>
+        <v>623</v>
       </c>
       <c r="G175" s="5" t="str">
         <f t="shared" si="7"/>
@@ -6973,14 +6939,14 @@
         <v>630</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G177" s="5" t="str">
         <f t="shared" si="7"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>230</v>
       </c>
@@ -6998,7 +6964,7 @@
         <v>630</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G178" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7023,7 +6989,7 @@
         <v>621</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="G179" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7048,14 +7014,14 @@
         <v>630</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G180" s="5" t="str">
         <f t="shared" si="7"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>613</v>
       </c>
@@ -7070,7 +7036,7 @@
         <v>6</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>623</v>
@@ -7095,7 +7061,7 @@
         <v>6</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F182" s="5" t="s">
         <v>632</v>
@@ -7105,7 +7071,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>233</v>
       </c>
@@ -7120,10 +7086,10 @@
         <v>6</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G183" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7198,14 +7164,14 @@
         <v>630</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G186" s="5" t="str">
         <f t="shared" si="7"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>237</v>
       </c>
@@ -7223,7 +7189,7 @@
         <v>630</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="G187" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7280,7 +7246,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>240</v>
       </c>
@@ -7323,14 +7289,14 @@
         <v>630</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G191" s="5" t="str">
         <f t="shared" si="7"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>242</v>
       </c>
@@ -7348,14 +7314,14 @@
         <v>630</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G192" s="5" t="str">
         <f t="shared" si="7"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>243</v>
       </c>
@@ -7370,7 +7336,7 @@
         <v>6</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>632</v>
@@ -7380,7 +7346,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>244</v>
       </c>
@@ -7417,7 +7383,7 @@
         <v>1.18</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>621</v>
@@ -7455,7 +7421,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>247</v>
       </c>
@@ -7473,7 +7439,7 @@
         <v>621</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G197" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7548,7 +7514,7 @@
         <v>630</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="G200" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7595,7 +7561,7 @@
         <v>6</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>628</v>
@@ -7605,7 +7571,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>255</v>
       </c>
@@ -7623,7 +7589,7 @@
         <v>630</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G203" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7698,7 +7664,7 @@
         <v>630</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="G206" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7730,7 +7696,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>260</v>
       </c>
@@ -7745,7 +7711,7 @@
         <v>6</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>628</v>
@@ -7755,7 +7721,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>261</v>
       </c>
@@ -7795,7 +7761,7 @@
         <v>6</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>632</v>
@@ -7820,7 +7786,7 @@
         <v>6</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>632</v>
@@ -7830,7 +7796,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>262</v>
       </c>
@@ -7845,7 +7811,7 @@
         <v>6</v>
       </c>
       <c r="E212" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>635</v>
@@ -7867,13 +7833,13 @@
         <v>1.18</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G213" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7895,10 +7861,10 @@
         <v>6</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="G214" s="5" t="str">
         <f t="shared" si="7"/>
@@ -7945,7 +7911,7 @@
         <v>6</v>
       </c>
       <c r="E216" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>623</v>
@@ -7955,7 +7921,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>279</v>
       </c>
@@ -7970,17 +7936,17 @@
         <v>6</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="G217" s="5" t="str">
         <f t="shared" si="7"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>280</v>
       </c>
@@ -7998,14 +7964,14 @@
         <v>639</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G218" s="5" t="str">
         <f t="shared" si="7"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>281</v>
       </c>
@@ -8023,7 +7989,7 @@
         <v>621</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="G219" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8130,7 +8096,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>286</v>
       </c>
@@ -8142,20 +8108,20 @@
         <v>4.72</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G224" s="5" t="str">
         <f t="shared" si="7"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>287</v>
       </c>
@@ -8170,7 +8136,7 @@
         <v>6</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>623</v>
@@ -8273,7 +8239,7 @@
         <v>630</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G229" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8345,7 +8311,7 @@
         <v>6</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>632</v>
@@ -8380,7 +8346,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>268</v>
       </c>
@@ -8395,17 +8361,17 @@
         <v>6</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="G234" s="5" t="str">
         <f t="shared" si="7"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>269</v>
       </c>
@@ -8445,7 +8411,7 @@
         <v>6</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>623</v>
@@ -8455,7 +8421,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>295</v>
       </c>
@@ -8473,7 +8439,7 @@
         <v>630</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G237" s="5" t="str">
         <f t="shared" si="7"/>
@@ -8555,7 +8521,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>274</v>
       </c>
@@ -8580,7 +8546,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>296</v>
       </c>
@@ -8598,14 +8564,14 @@
         <v>630</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="G242" s="5" t="str">
         <f t="shared" si="9"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>297</v>
       </c>
@@ -8630,7 +8596,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>298</v>
       </c>
@@ -8667,7 +8633,7 @@
         <v>1.18</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>639</v>
@@ -8680,7 +8646,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>275</v>
       </c>
@@ -8692,10 +8658,10 @@
         <v>3.54</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>623</v>
@@ -8705,7 +8671,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>276</v>
       </c>
@@ -8717,10 +8683,10 @@
         <v>0.59</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F247" s="5" t="s">
         <v>623</v>
@@ -8730,7 +8696,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>277</v>
       </c>
@@ -8745,7 +8711,7 @@
         <v>6</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F248" s="5" t="s">
         <v>623</v>
@@ -8755,7 +8721,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>278</v>
       </c>
@@ -8770,16 +8736,16 @@
         <v>6</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F249" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="G249" s="13" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G249" s="11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>300</v>
       </c>
@@ -8797,7 +8763,7 @@
         <v>639</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>660</v>
+        <v>623</v>
       </c>
       <c r="G250" s="5" t="str">
         <f t="shared" ref="G250:G299" si="10">IF(RIGHT(A250,2)="HD","HD","SD")</f>
@@ -8819,7 +8785,7 @@
         <v>6</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="F251" s="5" t="s">
         <v>632</v>
@@ -8844,7 +8810,7 @@
         <v>6</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F252" s="5" t="s">
         <v>623</v>
@@ -8854,7 +8820,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>303</v>
       </c>
@@ -8869,7 +8835,7 @@
         <v>6</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F253" s="5" t="s">
         <v>623</v>
@@ -8879,7 +8845,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>313</v>
       </c>
@@ -8894,7 +8860,7 @@
         <v>6</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="F254" s="5" t="s">
         <v>635</v>
@@ -8904,7 +8870,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>314</v>
       </c>
@@ -8919,7 +8885,7 @@
         <v>6</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="F255" s="5" t="s">
         <v>632</v>
@@ -8929,7 +8895,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>315</v>
       </c>
@@ -8944,10 +8910,10 @@
         <v>6</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G256" s="5" t="str">
         <f t="shared" si="10"/>
@@ -8966,13 +8932,13 @@
         <v>1.18</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G257" s="5" t="str">
         <f t="shared" si="10"/>
@@ -8994,10 +8960,10 @@
         <v>6</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G258" s="5" t="str">
         <f t="shared" si="10"/>
@@ -9016,10 +8982,10 @@
         <v>2.36</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F259" s="5" t="s">
         <v>640</v>
@@ -9029,7 +8995,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>319</v>
       </c>
@@ -9044,10 +9010,10 @@
         <v>6</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G260" s="5" t="str">
         <f t="shared" si="10"/>
@@ -9097,7 +9063,7 @@
         <v>630</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G262" s="5" t="str">
         <f t="shared" si="10"/>
@@ -9116,10 +9082,10 @@
         <v>1.77</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="F263" s="5" t="s">
         <v>640</v>
@@ -9141,7 +9107,7 @@
         <v>1.18</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E264" s="5" t="s">
         <v>630</v>
@@ -9154,7 +9120,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>307</v>
       </c>
@@ -9169,7 +9135,7 @@
         <v>6</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="F265" s="5" t="s">
         <v>640</v>
@@ -9179,7 +9145,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>321</v>
       </c>
@@ -9197,7 +9163,7 @@
         <v>621</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="G266" s="5" t="str">
         <f t="shared" si="10"/>
@@ -9222,14 +9188,14 @@
         <v>630</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G267" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>323</v>
       </c>
@@ -9247,14 +9213,14 @@
         <v>630</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G268" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>324</v>
       </c>
@@ -9272,7 +9238,7 @@
         <v>630</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G269" s="5" t="str">
         <f t="shared" si="10"/>
@@ -9304,7 +9270,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>326</v>
       </c>
@@ -9322,7 +9288,7 @@
         <v>630</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G271" s="5" t="str">
         <f t="shared" si="10"/>
@@ -9347,14 +9313,14 @@
         <v>630</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G272" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
         <v>328</v>
       </c>
@@ -9372,7 +9338,7 @@
         <v>630</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G273" s="5" t="str">
         <f t="shared" si="10"/>
@@ -9397,7 +9363,7 @@
         <v>630</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G274" s="5" t="str">
         <f t="shared" si="10"/>
@@ -9422,7 +9388,7 @@
         <v>630</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G275" s="5" t="str">
         <f t="shared" si="10"/>
@@ -9479,7 +9445,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>333</v>
       </c>
@@ -9504,7 +9470,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>334</v>
       </c>
@@ -9522,14 +9488,14 @@
         <v>630</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G279" s="5" t="str">
         <f t="shared" si="10"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>335</v>
       </c>
@@ -9554,7 +9520,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>336</v>
       </c>
@@ -9566,7 +9532,7 @@
         <v>0.3</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E281" s="5" t="s">
         <v>630</v>
@@ -9616,7 +9582,7 @@
         <v>0.3</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E283" s="5" t="s">
         <v>630</v>
@@ -9666,7 +9632,7 @@
         <v>1.18</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>630</v>
@@ -9766,7 +9732,7 @@
         <v>0.3</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E289" s="5" t="s">
         <v>630</v>
@@ -9779,7 +9745,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>345</v>
       </c>
@@ -9816,7 +9782,7 @@
         <v>0.3</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>630</v>
@@ -9829,7 +9795,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>347</v>
       </c>
@@ -9841,7 +9807,7 @@
         <v>0.3</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>630</v>
@@ -9891,7 +9857,7 @@
         <v>0.3</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>630</v>
@@ -9916,7 +9882,7 @@
         <v>0.3</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>630</v>
@@ -9997,7 +9963,7 @@
         <v>621</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G298" s="5" t="str">
         <f t="shared" si="10"/>
@@ -10016,13 +9982,13 @@
         <v>7.08</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="G299" s="5" t="str">
         <f t="shared" si="10"/>
@@ -10044,13 +10010,13 @@
         <v>6</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F300" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="G300" s="13" t="s">
-        <v>648</v>
+      <c r="G300" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10065,10 +10031,10 @@
         <v>1.18</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F301" s="5" t="s">
         <v>640</v>
@@ -10078,7 +10044,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>356</v>
       </c>
@@ -10121,14 +10087,14 @@
         <v>621</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G303" s="5" t="str">
         <f t="shared" si="12"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>310</v>
       </c>
@@ -10146,7 +10112,7 @@
         <v>621</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G304" s="5" t="str">
         <f t="shared" si="12"/>
@@ -10171,7 +10137,7 @@
         <v>621</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="G305" s="5" t="str">
         <f t="shared" si="12"/>
@@ -10246,7 +10212,7 @@
         <v>639</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>663</v>
+        <v>624</v>
       </c>
       <c r="G308" s="5" t="str">
         <f t="shared" si="12"/>
@@ -10271,7 +10237,7 @@
         <v>621</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="G309" s="5" t="str">
         <f t="shared" si="12"/>
@@ -10293,7 +10259,7 @@
         <v>6</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="F310" s="5" t="s">
         <v>623</v>
@@ -10343,7 +10309,7 @@
         <v>6</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F312" s="5" t="s">
         <v>640</v>
@@ -10421,7 +10387,7 @@
         <v>621</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>660</v>
+        <v>624</v>
       </c>
       <c r="G315" s="5" t="str">
         <f t="shared" si="12"/>
@@ -10440,13 +10406,13 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="G316" s="5" t="str">
         <f t="shared" si="12"/>
@@ -10478,7 +10444,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>371</v>
       </c>
@@ -10521,7 +10487,7 @@
         <v>630</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="G319" s="5" t="str">
         <f t="shared" si="12"/>
@@ -10568,7 +10534,7 @@
         <v>6</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F321" s="5" t="s">
         <v>631</v>
@@ -10596,14 +10562,14 @@
         <v>630</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G322" s="5" t="str">
         <f t="shared" si="12"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>376</v>
       </c>
@@ -10621,7 +10587,7 @@
         <v>630</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="G323" s="5" t="str">
         <f t="shared" si="12"/>
@@ -10646,7 +10612,7 @@
         <v>621</v>
       </c>
       <c r="F324" s="5" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="G324" s="5" t="str">
         <f t="shared" si="12"/>
@@ -10671,7 +10637,7 @@
         <v>630</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="G325" s="5" t="str">
         <f t="shared" si="12"/>
@@ -10696,14 +10662,14 @@
         <v>621</v>
       </c>
       <c r="F326" s="5" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="G326" s="5" t="str">
         <f t="shared" si="12"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>377</v>
       </c>
@@ -10743,7 +10709,7 @@
         <v>6</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F328" s="5" t="s">
         <v>625</v>
@@ -10753,7 +10719,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
         <v>379</v>
       </c>
@@ -10796,14 +10762,14 @@
         <v>630</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="G330" s="5" t="str">
         <f t="shared" si="12"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
         <v>381</v>
       </c>
@@ -10828,7 +10794,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>382</v>
       </c>
@@ -10843,7 +10809,7 @@
         <v>6</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="F332" s="5" t="s">
         <v>632</v>
@@ -10868,7 +10834,7 @@
         <v>6</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F333" s="5" t="s">
         <v>632</v>
@@ -10893,7 +10859,7 @@
         <v>6</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F334" s="5" t="s">
         <v>625</v>
@@ -10918,7 +10884,7 @@
         <v>6</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F335" s="5" t="s">
         <v>628</v>
@@ -10943,7 +10909,7 @@
         <v>6</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F336" s="5" t="s">
         <v>635</v>
@@ -11028,7 +10994,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>390</v>
       </c>
@@ -11103,7 +11069,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>393</v>
       </c>
@@ -11118,10 +11084,10 @@
         <v>6</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="G343" s="5" t="str">
         <f t="shared" si="12"/>
@@ -11146,7 +11112,7 @@
         <v>621</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="G344" s="5" t="str">
         <f t="shared" si="12"/>
@@ -11171,14 +11137,14 @@
         <v>621</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="G345" s="5" t="str">
         <f t="shared" si="12"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>396</v>
       </c>
@@ -11228,7 +11194,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
         <v>398</v>
       </c>
@@ -11303,7 +11269,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
         <v>401</v>
       </c>
@@ -11321,7 +11287,7 @@
         <v>630</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G351" s="5" t="str">
         <f t="shared" si="12"/>
@@ -11346,7 +11312,7 @@
         <v>630</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="G352" s="5" t="str">
         <f t="shared" si="12"/>
@@ -11371,7 +11337,7 @@
         <v>630</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G353" s="5" t="str">
         <f t="shared" si="12"/>
@@ -11393,7 +11359,7 @@
         <v>6</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F354" s="5" t="s">
         <v>623</v>
@@ -11418,7 +11384,7 @@
         <v>6</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F355" s="5" t="s">
         <v>628</v>
@@ -11428,7 +11394,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
         <v>411</v>
       </c>
@@ -11453,7 +11419,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
         <v>412</v>
       </c>
@@ -11468,7 +11434,7 @@
         <v>6</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F357" s="5" t="s">
         <v>632</v>
@@ -11496,7 +11462,7 @@
         <v>630</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="G358" s="5" t="str">
         <f t="shared" si="12"/>
@@ -11546,7 +11512,7 @@
         <v>630</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="G360" s="5" t="str">
         <f t="shared" si="12"/>
@@ -11568,7 +11534,7 @@
         <v>6</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F361" s="5" t="s">
         <v>622</v>
@@ -11593,10 +11559,10 @@
         <v>6</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G362" s="5" t="str">
         <f t="shared" si="12"/>
@@ -11618,7 +11584,7 @@
         <v>6</v>
       </c>
       <c r="E363" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F363" s="5" t="s">
         <v>623</v>
@@ -11643,7 +11609,7 @@
         <v>6</v>
       </c>
       <c r="E364" s="5" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="F364" s="5" t="s">
         <v>623</v>
@@ -11653,7 +11619,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
         <v>420</v>
       </c>
@@ -11671,7 +11637,7 @@
         <v>630</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="G365" s="5" t="str">
         <f t="shared" ref="G365:G428" si="14">IF(RIGHT(A365,2)="HD","HD","SD")</f>
@@ -11693,7 +11659,7 @@
         <v>6</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F366" s="5" t="s">
         <v>623</v>
@@ -11793,7 +11759,7 @@
         <v>6</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F370" s="5" t="s">
         <v>628</v>
@@ -11803,7 +11769,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
         <v>423</v>
       </c>
@@ -11818,17 +11784,17 @@
         <v>6</v>
       </c>
       <c r="E371" s="5" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G371" s="5" t="str">
         <f t="shared" si="14"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
         <v>424</v>
       </c>
@@ -11843,17 +11809,17 @@
         <v>6</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G372" s="5" t="str">
         <f t="shared" si="14"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
         <v>425</v>
       </c>
@@ -11896,7 +11862,7 @@
         <v>639</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G374" s="5" t="str">
         <f t="shared" si="14"/>
@@ -11915,20 +11881,20 @@
         <v>2.36</v>
       </c>
       <c r="D375" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E375" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G375" s="5" t="str">
         <f t="shared" si="14"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
         <v>428</v>
       </c>
@@ -11965,13 +11931,13 @@
         <v>4.72</v>
       </c>
       <c r="D377" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E377" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G377" s="5" t="str">
         <f t="shared" si="14"/>
@@ -11993,10 +11959,10 @@
         <v>6</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G378" s="5" t="str">
         <f t="shared" si="14"/>
@@ -12015,20 +11981,20 @@
         <v>5.9</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E379" s="5" t="s">
         <v>636</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G379" s="5" t="str">
         <f t="shared" si="14"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
         <v>432</v>
       </c>
@@ -12046,7 +12012,7 @@
         <v>636</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G380" s="5" t="str">
         <f t="shared" si="14"/>
@@ -12071,7 +12037,7 @@
         <v>621</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G381" s="5" t="str">
         <f t="shared" si="14"/>
@@ -12090,7 +12056,7 @@
         <v>17.7</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E382" s="5" t="s">
         <v>621</v>
@@ -12103,7 +12069,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
         <v>435</v>
       </c>
@@ -12115,7 +12081,7 @@
         <v>1.18</v>
       </c>
       <c r="D383" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E383" s="5" t="s">
         <v>621</v>
@@ -12128,7 +12094,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
         <v>436</v>
       </c>
@@ -12165,10 +12131,10 @@
         <v>1.18</v>
       </c>
       <c r="D385" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E385" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F385" s="5" t="s">
         <v>623</v>
@@ -12178,7 +12144,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
         <v>438</v>
       </c>
@@ -12190,7 +12156,7 @@
         <v>1.18</v>
       </c>
       <c r="D386" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E386" s="5" t="s">
         <v>621</v>
@@ -12203,7 +12169,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
         <v>439</v>
       </c>
@@ -12228,7 +12194,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
         <v>440</v>
       </c>
@@ -12265,7 +12231,7 @@
         <v>22.42</v>
       </c>
       <c r="D389" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E389" s="5" t="s">
         <v>621</v>
@@ -12278,7 +12244,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
         <v>442</v>
       </c>
@@ -12315,7 +12281,7 @@
         <v>17.7</v>
       </c>
       <c r="D391" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E391" s="5" t="s">
         <v>636</v>
@@ -12328,7 +12294,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
         <v>444</v>
       </c>
@@ -12365,7 +12331,7 @@
         <v>22.42</v>
       </c>
       <c r="D393" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E393" s="5" t="s">
         <v>636</v>
@@ -12378,7 +12344,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
         <v>446</v>
       </c>
@@ -12396,7 +12362,7 @@
         <v>636</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G394" s="5" t="str">
         <f t="shared" si="14"/>
@@ -12415,20 +12381,20 @@
         <v>17.7</v>
       </c>
       <c r="D395" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E395" s="5" t="s">
         <v>636</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G395" s="5" t="str">
         <f t="shared" si="14"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
         <v>448</v>
       </c>
@@ -12446,7 +12412,7 @@
         <v>636</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G396" s="5" t="str">
         <f t="shared" si="14"/>
@@ -12465,20 +12431,20 @@
         <v>20.059999999999999</v>
       </c>
       <c r="D397" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E397" s="5" t="s">
         <v>636</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G397" s="5" t="str">
         <f t="shared" si="14"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
         <v>450</v>
       </c>
@@ -12496,7 +12462,7 @@
         <v>636</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G398" s="5" t="str">
         <f t="shared" si="14"/>
@@ -12515,7 +12481,7 @@
         <v>1.18</v>
       </c>
       <c r="D399" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E399" s="5" t="s">
         <v>639</v>
@@ -12528,7 +12494,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
         <v>452</v>
       </c>
@@ -12540,10 +12506,10 @@
         <v>2.36</v>
       </c>
       <c r="D400" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E400" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F400" s="5" t="s">
         <v>640</v>
@@ -12553,7 +12519,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
         <v>453</v>
       </c>
@@ -12568,7 +12534,7 @@
         <v>6</v>
       </c>
       <c r="E401" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F401" s="5" t="s">
         <v>632</v>
@@ -12590,7 +12556,7 @@
         <v>11.8</v>
       </c>
       <c r="D402" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E402" s="5" t="s">
         <v>621</v>
@@ -12640,7 +12606,7 @@
         <v>9.44</v>
       </c>
       <c r="D404" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E404" s="5" t="s">
         <v>639</v>
@@ -12778,7 +12744,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
         <v>462</v>
       </c>
@@ -12803,7 +12769,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
         <v>463</v>
       </c>
@@ -12853,7 +12819,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
         <v>465</v>
       </c>
@@ -12878,7 +12844,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
         <v>466</v>
       </c>
@@ -12903,7 +12869,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
         <v>467</v>
       </c>
@@ -12918,7 +12884,7 @@
         <v>6</v>
       </c>
       <c r="E415" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F415" s="5" t="s">
         <v>635</v>
@@ -13003,7 +12969,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
         <v>471</v>
       </c>
@@ -13015,7 +12981,7 @@
         <v>22.42</v>
       </c>
       <c r="D419" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E419" s="5" t="s">
         <v>621</v>
@@ -13028,7 +12994,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
         <v>472</v>
       </c>
@@ -13053,7 +13019,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
         <v>473</v>
       </c>
@@ -13071,14 +13037,14 @@
         <v>621</v>
       </c>
       <c r="F421" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G421" s="5" t="str">
         <f t="shared" si="14"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
         <v>474</v>
       </c>
@@ -13096,14 +13062,14 @@
         <v>621</v>
       </c>
       <c r="F422" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G422" s="5" t="str">
         <f t="shared" si="14"/>
         <v>HD</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
         <v>475</v>
       </c>
@@ -13115,13 +13081,13 @@
         <v>22.42</v>
       </c>
       <c r="D423" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E423" s="5" t="s">
         <v>636</v>
       </c>
       <c r="F423" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G423" s="5" t="str">
         <f t="shared" si="14"/>
@@ -13129,31 +13095,31 @@
       </c>
     </row>
     <row r="424" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="B424" s="15" t="s">
+      <c r="A424" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="B424" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C424" s="15">
+      <c r="C424" s="13">
         <f t="shared" si="15"/>
         <v>22.42</v>
       </c>
       <c r="D424" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E424" s="15" t="s">
+      <c r="E424" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="F424" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="G424" s="15" t="str">
+      <c r="F424" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="G424" s="13" t="str">
         <f t="shared" si="14"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
         <v>476</v>
       </c>
@@ -13171,7 +13137,7 @@
         <v>636</v>
       </c>
       <c r="F425" s="5" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="G425" s="5" t="str">
         <f t="shared" si="14"/>
@@ -13190,7 +13156,7 @@
         <v>22.42</v>
       </c>
       <c r="D426" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E426" s="5" t="s">
         <v>636</v>
@@ -13203,7 +13169,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
         <v>478</v>
       </c>
@@ -13228,7 +13194,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
         <v>479</v>
       </c>
@@ -13278,7 +13244,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
         <v>481</v>
       </c>
@@ -13315,13 +13281,13 @@
         <v>7.08</v>
       </c>
       <c r="D431" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E431" s="5" t="s">
         <v>636</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G431" s="5" t="str">
         <f t="shared" si="16"/>
@@ -13365,13 +13331,13 @@
         <v>4.72</v>
       </c>
       <c r="D433" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E433" s="5" t="s">
         <v>636</v>
       </c>
       <c r="F433" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G433" s="5" t="str">
         <f t="shared" si="16"/>
@@ -13390,20 +13356,20 @@
         <v>1.18</v>
       </c>
       <c r="D434" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E434" s="5" t="s">
         <v>636</v>
       </c>
       <c r="F434" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G434" s="5" t="str">
         <f t="shared" si="16"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
         <v>486</v>
       </c>
@@ -13415,20 +13381,20 @@
         <v>22.42</v>
       </c>
       <c r="D435" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E435" s="5" t="s">
         <v>636</v>
       </c>
       <c r="F435" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G435" s="5" t="str">
         <f t="shared" si="16"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
         <v>487</v>
       </c>
@@ -13465,20 +13431,20 @@
         <v>8.26</v>
       </c>
       <c r="D437" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E437" s="5" t="s">
         <v>636</v>
       </c>
       <c r="F437" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G437" s="5" t="str">
         <f t="shared" si="16"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
         <v>489</v>
       </c>
@@ -13590,7 +13556,7 @@
         <v>1.18</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E442" s="5" t="s">
         <v>621</v>
@@ -13603,7 +13569,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
         <v>494</v>
       </c>
@@ -13615,7 +13581,7 @@
         <v>1.18</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E443" s="5" t="s">
         <v>639</v>
@@ -13653,7 +13619,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
         <v>496</v>
       </c>
@@ -13753,7 +13719,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
         <v>500</v>
       </c>
@@ -13803,7 +13769,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
         <v>502</v>
       </c>
@@ -13853,7 +13819,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
         <v>504</v>
       </c>
@@ -13868,7 +13834,7 @@
         <v>6</v>
       </c>
       <c r="E453" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F453" s="5" t="s">
         <v>632</v>
@@ -13878,7 +13844,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
         <v>505</v>
       </c>
@@ -13893,7 +13859,7 @@
         <v>6</v>
       </c>
       <c r="E454" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F454" s="5" t="s">
         <v>632</v>
@@ -13928,7 +13894,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
         <v>507</v>
       </c>
@@ -13953,7 +13919,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
         <v>508</v>
       </c>
@@ -13978,7 +13944,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
         <v>509</v>
       </c>
@@ -13993,7 +13959,7 @@
         <v>6</v>
       </c>
       <c r="E458" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F458" s="5" t="s">
         <v>628</v>
@@ -14028,7 +13994,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
         <v>511</v>
       </c>
@@ -14043,7 +14009,7 @@
         <v>6</v>
       </c>
       <c r="E460" s="5" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="F460" s="5" t="s">
         <v>628</v>
@@ -14093,7 +14059,7 @@
         <v>6</v>
       </c>
       <c r="E462" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F462" s="5" t="s">
         <v>628</v>
@@ -14103,7 +14069,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
         <v>514</v>
       </c>
@@ -14121,14 +14087,14 @@
         <v>630</v>
       </c>
       <c r="F463" s="5" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G463" s="5" t="str">
         <f t="shared" si="16"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
         <v>515</v>
       </c>
@@ -14153,7 +14119,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
         <v>516</v>
       </c>
@@ -14196,7 +14162,7 @@
         <v>630</v>
       </c>
       <c r="F466" s="5" t="s">
-        <v>665</v>
+        <v>625</v>
       </c>
       <c r="G466" s="5" t="str">
         <f t="shared" si="16"/>
@@ -14218,10 +14184,10 @@
         <v>6</v>
       </c>
       <c r="E467" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F467" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="G467" s="5" t="str">
         <f t="shared" si="16"/>
@@ -14243,17 +14209,17 @@
         <v>6</v>
       </c>
       <c r="E468" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F468" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="G468" s="5" t="str">
         <f t="shared" si="16"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
         <v>518</v>
       </c>
@@ -14271,14 +14237,14 @@
         <v>621</v>
       </c>
       <c r="F469" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G469" s="5" t="str">
         <f t="shared" si="16"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
         <v>519</v>
       </c>
@@ -14303,7 +14269,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4" t="s">
         <v>520</v>
       </c>
@@ -14328,7 +14294,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="s">
         <v>521</v>
       </c>
@@ -14353,7 +14319,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
         <v>533</v>
       </c>
@@ -14368,7 +14334,7 @@
         <v>6</v>
       </c>
       <c r="E473" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F473" s="5" t="s">
         <v>631</v>
@@ -14446,7 +14412,7 @@
         <v>630</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G476" s="5" t="str">
         <f t="shared" si="16"/>
@@ -14493,7 +14459,7 @@
         <v>6</v>
       </c>
       <c r="E478" s="5" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F478" s="5" t="s">
         <v>640</v>
@@ -14503,7 +14469,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
         <v>522</v>
       </c>
@@ -14515,20 +14481,20 @@
         <v>2.36</v>
       </c>
       <c r="D479" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E479" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F479" s="5" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G479" s="5" t="str">
         <f t="shared" si="16"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
         <v>523</v>
       </c>
@@ -14543,13 +14509,13 @@
         <v>6</v>
       </c>
       <c r="E480" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F480" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="G480" s="13" t="s">
-        <v>648</v>
+        <v>640</v>
+      </c>
+      <c r="G480" s="11" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="481" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14567,7 +14533,7 @@
         <v>6</v>
       </c>
       <c r="E481" s="5" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F481" s="5" t="s">
         <v>623</v>
@@ -14577,7 +14543,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
         <v>540</v>
       </c>
@@ -14589,10 +14555,10 @@
         <v>3.54</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E482" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F482" s="5" t="s">
         <v>640</v>
@@ -14617,7 +14583,7 @@
         <v>6</v>
       </c>
       <c r="E483" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F483" s="5" t="s">
         <v>640</v>
@@ -14627,7 +14593,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
         <v>542</v>
       </c>
@@ -14642,7 +14608,7 @@
         <v>6</v>
       </c>
       <c r="E484" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F484" s="5" t="s">
         <v>632</v>
@@ -14677,7 +14643,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="s">
         <v>525</v>
       </c>
@@ -14695,14 +14661,14 @@
         <v>621</v>
       </c>
       <c r="F486" s="5" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G486" s="5" t="str">
         <f t="shared" si="18"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="s">
         <v>526</v>
       </c>
@@ -14727,7 +14693,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
         <v>527</v>
       </c>
@@ -14745,14 +14711,14 @@
         <v>621</v>
       </c>
       <c r="F488" s="5" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="G488" s="5" t="str">
         <f t="shared" si="18"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="4" t="s">
         <v>528</v>
       </c>
@@ -14777,7 +14743,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="4" t="s">
         <v>529</v>
       </c>
@@ -14795,14 +14761,14 @@
         <v>621</v>
       </c>
       <c r="F490" s="5" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="G490" s="5" t="str">
         <f t="shared" si="18"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="4" t="s">
         <v>530</v>
       </c>
@@ -14845,14 +14811,14 @@
         <v>621</v>
       </c>
       <c r="F492" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G492" s="5" t="str">
         <f t="shared" si="18"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="4" t="s">
         <v>532</v>
       </c>
@@ -14877,7 +14843,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="s">
         <v>547</v>
       </c>
@@ -14892,7 +14858,7 @@
         <v>6</v>
       </c>
       <c r="E494" s="5" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="F494" s="5" t="s">
         <v>625</v>
@@ -14927,7 +14893,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
         <v>549</v>
       </c>
@@ -14942,7 +14908,7 @@
         <v>6</v>
       </c>
       <c r="E496" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F496" s="5" t="s">
         <v>625</v>
@@ -14977,7 +14943,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="s">
         <v>551</v>
       </c>
@@ -15014,7 +14980,7 @@
         <v>2.36</v>
       </c>
       <c r="D499" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E499" s="5" t="s">
         <v>639</v>
@@ -15039,7 +15005,7 @@
         <v>1.18</v>
       </c>
       <c r="D500" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E500" s="5" t="s">
         <v>621</v>
@@ -15089,7 +15055,7 @@
         <v>2.36</v>
       </c>
       <c r="D502" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E502" s="5" t="s">
         <v>639</v>
@@ -15142,7 +15108,7 @@
         <v>6</v>
       </c>
       <c r="E504" s="5" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F504" s="5" t="s">
         <v>635</v>
@@ -15167,7 +15133,7 @@
         <v>6</v>
       </c>
       <c r="E505" s="5" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F505" s="5" t="s">
         <v>632</v>
@@ -15192,10 +15158,10 @@
         <v>6</v>
       </c>
       <c r="E506" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="G506" s="5" t="str">
         <f t="shared" si="18"/>
@@ -15217,7 +15183,7 @@
         <v>6</v>
       </c>
       <c r="E507" s="5" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F507" s="5" t="s">
         <v>632</v>
@@ -15227,7 +15193,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="4" t="s">
         <v>558</v>
       </c>
@@ -15239,10 +15205,10 @@
         <v>1.18</v>
       </c>
       <c r="D508" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E508" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F508" s="5" t="s">
         <v>623</v>
@@ -15252,7 +15218,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="4" t="s">
         <v>559</v>
       </c>
@@ -15267,7 +15233,7 @@
         <v>6</v>
       </c>
       <c r="E509" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F509" s="5" t="s">
         <v>623</v>
@@ -15342,17 +15308,17 @@
         <v>6</v>
       </c>
       <c r="E512" s="5" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F512" s="5" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="G512" s="5" t="str">
         <f t="shared" si="18"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="4" t="s">
         <v>562</v>
       </c>
@@ -15385,7 +15351,7 @@
         <v>10</v>
       </c>
       <c r="C514" s="5">
-        <f t="shared" ref="C514:C564" si="19">ROUND(LEFT(B514,(LEN(B514)-8)),2)</f>
+        <f t="shared" ref="C514:C578" si="19">ROUND(LEFT(B514,(LEN(B514)-8)),2)</f>
         <v>0</v>
       </c>
       <c r="D514" s="5" t="s">
@@ -15417,7 +15383,7 @@
         <v>6</v>
       </c>
       <c r="E515" s="5" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F515" s="5" t="s">
         <v>632</v>
@@ -15427,7 +15393,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="4" t="s">
         <v>563</v>
       </c>
@@ -15445,7 +15411,7 @@
         <v>630</v>
       </c>
       <c r="F516" s="5" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="G516" s="5" t="str">
         <f t="shared" si="18"/>
@@ -15470,14 +15436,14 @@
         <v>639</v>
       </c>
       <c r="F517" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G517" s="5" t="str">
         <f t="shared" si="18"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="4" t="s">
         <v>567</v>
       </c>
@@ -15492,10 +15458,10 @@
         <v>6</v>
       </c>
       <c r="E518" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F518" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G518" s="5" t="str">
         <f t="shared" si="18"/>
@@ -15539,20 +15505,20 @@
         <v>0.12</v>
       </c>
       <c r="D520" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E520" s="5" t="s">
         <v>630</v>
       </c>
       <c r="F520" s="5" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="G520" s="5" t="str">
         <f t="shared" si="18"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="4" t="s">
         <v>570</v>
       </c>
@@ -15570,7 +15536,7 @@
         <v>630</v>
       </c>
       <c r="F521" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G521" s="5" t="str">
         <f t="shared" si="18"/>
@@ -15589,7 +15555,7 @@
         <v>1.18</v>
       </c>
       <c r="D522" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E522" s="5" t="s">
         <v>639</v>
@@ -15602,7 +15568,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="4" t="s">
         <v>572</v>
       </c>
@@ -15614,7 +15580,7 @@
         <v>0.12</v>
       </c>
       <c r="D523" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E523" s="5" t="s">
         <v>621</v>
@@ -15639,7 +15605,7 @@
         <v>0.12</v>
       </c>
       <c r="D524" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E524" s="5" t="s">
         <v>639</v>
@@ -15727,7 +15693,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="4" t="s">
         <v>577</v>
       </c>
@@ -15739,7 +15705,7 @@
         <v>0.12</v>
       </c>
       <c r="D528" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E528" s="5" t="s">
         <v>630</v>
@@ -15752,7 +15718,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="4" t="s">
         <v>578</v>
       </c>
@@ -15764,7 +15730,7 @@
         <v>2.36</v>
       </c>
       <c r="D529" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E529" s="5" t="s">
         <v>639</v>
@@ -15777,7 +15743,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="4" t="s">
         <v>579</v>
       </c>
@@ -15789,7 +15755,7 @@
         <v>0.12</v>
       </c>
       <c r="D530" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E530" s="5" t="s">
         <v>630</v>
@@ -15827,7 +15793,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="4" t="s">
         <v>581</v>
       </c>
@@ -15864,7 +15830,7 @@
         <v>17.7</v>
       </c>
       <c r="D533" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E533" s="5" t="s">
         <v>639</v>
@@ -15877,7 +15843,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="4" t="s">
         <v>583</v>
       </c>
@@ -15952,57 +15918,57 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="16" t="s">
-        <v>666</v>
-      </c>
-      <c r="B537" s="17" t="s">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A537" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="B537" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C537" s="17">
+      <c r="C537" s="15">
         <f t="shared" si="19"/>
         <v>0.12</v>
       </c>
-      <c r="D537" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="E537" s="17" t="s">
-        <v>621</v>
-      </c>
-      <c r="F537" s="17" t="s">
+      <c r="D537" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E537" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="F537" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="G537" s="17" t="str">
+      <c r="G537" s="15" t="str">
         <f t="shared" si="18"/>
         <v>SD</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A538" s="16" t="s">
+      <c r="A538" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="B538" s="17" t="s">
+      <c r="B538" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C538" s="17">
+      <c r="C538" s="15">
         <f t="shared" si="19"/>
         <v>0.12</v>
       </c>
-      <c r="D538" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="E538" s="17" t="s">
-        <v>621</v>
-      </c>
-      <c r="F538" s="17" t="s">
+      <c r="D538" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E538" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="F538" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="G538" s="17" t="str">
+      <c r="G538" s="15" t="str">
         <f t="shared" si="18"/>
         <v>SD</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4" t="s">
         <v>587</v>
       </c>
@@ -16014,7 +15980,7 @@
         <v>0.12</v>
       </c>
       <c r="D539" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E539" s="5" t="s">
         <v>630</v>
@@ -16052,7 +16018,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="4" t="s">
         <v>589</v>
       </c>
@@ -16127,7 +16093,7 @@
         <v>HD</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="4" t="s">
         <v>592</v>
       </c>
@@ -16139,7 +16105,7 @@
         <v>0.12</v>
       </c>
       <c r="D544" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E544" s="5" t="s">
         <v>630</v>
@@ -16152,7 +16118,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4" t="s">
         <v>593</v>
       </c>
@@ -16170,7 +16136,7 @@
         <v>621</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G545" s="5" t="str">
         <f t="shared" si="18"/>
@@ -16195,14 +16161,14 @@
         <v>621</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G546" s="5" t="str">
         <f t="shared" ref="G546:G564" si="20">IF(RIGHT(A546,2)="HD","HD","SD")</f>
         <v>HD</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4" t="s">
         <v>595</v>
       </c>
@@ -16214,7 +16180,7 @@
         <v>0.12</v>
       </c>
       <c r="D547" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E547" s="5" t="s">
         <v>630</v>
@@ -16227,7 +16193,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4" t="s">
         <v>596</v>
       </c>
@@ -16252,7 +16218,7 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4" t="s">
         <v>597</v>
       </c>
@@ -16264,7 +16230,7 @@
         <v>0.12</v>
       </c>
       <c r="D549" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E549" s="5" t="s">
         <v>621</v>
@@ -16289,13 +16255,13 @@
         <v>0.12</v>
       </c>
       <c r="D550" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E550" s="5" t="s">
         <v>630</v>
       </c>
       <c r="F550" s="5" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="G550" s="5" t="str">
         <f t="shared" si="20"/>
@@ -16314,7 +16280,7 @@
         <v>0.12</v>
       </c>
       <c r="D551" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E551" s="5" t="s">
         <v>630</v>
@@ -16370,7 +16336,7 @@
         <v>639</v>
       </c>
       <c r="F553" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G553" s="5" t="str">
         <f t="shared" si="20"/>
@@ -16395,14 +16361,14 @@
         <v>639</v>
       </c>
       <c r="F554" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G554" s="5" t="str">
         <f t="shared" si="20"/>
         <v>HD</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="4" t="s">
         <v>605</v>
       </c>
@@ -16514,7 +16480,7 @@
         <v>22.42</v>
       </c>
       <c r="D559" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E559" s="5" t="s">
         <v>621</v>
@@ -16564,7 +16530,7 @@
         <v>0.12</v>
       </c>
       <c r="D561" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E561" s="5" t="s">
         <v>621</v>
@@ -16595,7 +16561,7 @@
         <v>621</v>
       </c>
       <c r="F562" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G562" s="5" t="str">
         <f t="shared" si="20"/>
@@ -16614,10 +16580,10 @@
         <v>0.12</v>
       </c>
       <c r="D563" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E563" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F563" s="5" t="s">
         <v>623</v>
@@ -16639,7 +16605,7 @@
         <v>0.59</v>
       </c>
       <c r="D564" s="5" t="s">
-        <v>620</v>
+        <v>6</v>
       </c>
       <c r="E564" s="5" t="s">
         <v>621</v>
@@ -16652,385 +16618,10 @@
         <v>SD</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="B565" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C565" s="5">
-        <f t="shared" ref="C514:C577" si="21">ROUND(LEFT(B565,(LEN(B565)-8)),2)</f>
-        <v>22.42</v>
-      </c>
-      <c r="D565" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A566" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="B566" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C566" s="5">
-        <f t="shared" si="21"/>
-        <v>0.12</v>
-      </c>
-      <c r="D566" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="567" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="B567" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C567" s="5">
-        <f t="shared" si="21"/>
-        <v>9.44</v>
-      </c>
-      <c r="D567" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="568" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="B568" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C568" s="5">
-        <f t="shared" si="21"/>
-        <v>0.12</v>
-      </c>
-      <c r="D568" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="569" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="B569" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C569" s="5">
-        <f t="shared" si="21"/>
-        <v>22.42</v>
-      </c>
-      <c r="D569" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="570" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="B570" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C570" s="5">
-        <f t="shared" si="21"/>
-        <v>22.42</v>
-      </c>
-      <c r="D570" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A571" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="B571" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C571" s="5">
-        <f t="shared" si="21"/>
-        <v>0.12</v>
-      </c>
-      <c r="D571" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="572" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="B572" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C572" s="5">
-        <f t="shared" si="21"/>
-        <v>0.12</v>
-      </c>
-      <c r="D572" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="573" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="B573" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C573" s="5">
-        <f t="shared" si="21"/>
-        <v>0.12</v>
-      </c>
-      <c r="D573" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="574" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="B574" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C574" s="5">
-        <f t="shared" si="21"/>
-        <v>0.12</v>
-      </c>
-      <c r="D574" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="575" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="B575" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C575" s="5">
-        <f t="shared" si="21"/>
-        <v>0.12</v>
-      </c>
-      <c r="D575" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="576" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="B576" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C576" s="5">
-        <f t="shared" si="21"/>
-        <v>22.42</v>
-      </c>
-      <c r="D576" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="B577" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C577" s="5">
-        <f t="shared" si="21"/>
-        <v>22.42</v>
-      </c>
-      <c r="D577" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="B578" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C578" s="5">
-        <f t="shared" ref="C578:C589" si="22">ROUND(LEFT(B578,(LEN(B578)-8)),2)</f>
-        <v>22.42</v>
-      </c>
-      <c r="D578" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A579" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="B579" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C579" s="5">
-        <f t="shared" si="22"/>
-        <v>2.36</v>
-      </c>
-      <c r="D579" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="B580" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C580" s="5">
-        <f t="shared" si="22"/>
-        <v>22.42</v>
-      </c>
-      <c r="D580" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A581" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="B581" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C581" s="5">
-        <f t="shared" si="22"/>
-        <v>14.16</v>
-      </c>
-      <c r="D581" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="B582" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C582" s="5">
-        <f t="shared" si="22"/>
-        <v>22.42</v>
-      </c>
-      <c r="D582" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A583" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="B583" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C583" s="5">
-        <f t="shared" si="22"/>
-        <v>22.42</v>
-      </c>
-      <c r="D583" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="B584" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C584" s="5">
-        <f t="shared" si="22"/>
-        <v>22.42</v>
-      </c>
-      <c r="D584" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B585" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C585" s="5">
-        <f t="shared" si="22"/>
-        <v>0.12</v>
-      </c>
-      <c r="D585" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="B586" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C586" s="5">
-        <f t="shared" si="22"/>
-        <v>1.18</v>
-      </c>
-      <c r="D586" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A587" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="B587" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C587" s="5">
-        <f t="shared" si="22"/>
-        <v>0.12</v>
-      </c>
-      <c r="D587" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A588" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="B588" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C588" s="5">
-        <f t="shared" si="22"/>
-        <v>0.59</v>
-      </c>
-      <c r="D588" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="B589" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C589" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="D589" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D589"/>
+  <autoFilter ref="A1:D564"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D589">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D564">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17057,7 +16648,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -17112,626 +16703,626 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10">
         <f t="shared" ref="C2:C26" si="0">ROUND(LEFT(B2,(LEN(B2)-8)),2)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="G2" s="12" t="str">
+      <c r="G2" s="10" t="str">
         <f t="shared" ref="G2:G26" si="1">IF(RIGHT(A2,2)="HD","HD","SD")</f>
         <v>SD</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="G3" s="12" t="str">
+      <c r="G3" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="G4" s="12" t="str">
+      <c r="G4" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="G5" s="12" t="str">
+      <c r="G5" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="G6" s="12" t="str">
+      <c r="G6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="G7" s="12" t="str">
+      <c r="G7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="G8" s="12" t="str">
+      <c r="G8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="G9" s="12" t="str">
+      <c r="G9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="G10" s="12" t="str">
+      <c r="G10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="G11" s="12" t="str">
+      <c r="G11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="G12" s="12" t="str">
+      <c r="G12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="G13" s="12" t="str">
+      <c r="G13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="G14" s="12" t="str">
+      <c r="G14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="G15" s="12" t="str">
+      <c r="G15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="F16" s="12" t="s">
+      <c r="D16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="G16" s="12" t="str">
+      <c r="G16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="G17" s="12" t="str">
+      <c r="G17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="G18" s="12" t="str">
+      <c r="G18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="B19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="G19" s="12" t="str">
+      <c r="G19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="G20" s="12" t="str">
+      <c r="G20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="B21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="G21" s="12" t="str">
+      <c r="G21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="B22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="G22" s="12" t="str">
+      <c r="G22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="B23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="G23" s="12" t="str">
+      <c r="G23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="B24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F24" s="12" t="s">
+      <c r="E24" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="G24" s="12" t="str">
+      <c r="G24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="B25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="E25" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="G25" s="12" t="str">
+      <c r="G25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="B26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E26" s="12" t="s">
-        <v>621</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="E26" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="G26" s="12" t="str">
+      <c r="G26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>SD</v>
       </c>
